--- a/仕様書/バグ取りスイマー_仕様書_エフェクト.xlsx
+++ b/仕様書/バグ取りスイマー_仕様書_エフェクト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2023年度\日本ゲーム大賞アマチュア部門\JGA_2023_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C22816-FAAE-43B4-AE10-B95D66A4838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DC0973-12A7-4198-B504-2A13B6634566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -147,13 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・
-・
-・
-・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームタイトル名を「バグ取りスイマー」に変更</t>
     <rPh sb="7" eb="8">
       <t>メイ</t>
@@ -220,9 +213,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>気泡のイメージ図と概要を作成</t>
+    <rPh sb="0" eb="2">
+      <t>キホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグを纏うオーラのイメージ図と概要を作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーのパワー溜めのイメージ図と概要を作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>・スイマーの移動時や各種シーンで使用する
-・泡が浮かんでから500ms後には</t>
+・泡が浮かんでから0.5秒後には</t>
     </r>
     <r>
       <rPr>
@@ -244,7 +261,7 @@
         <charset val="128"/>
       </rPr>
       <t>が開始する
-・泡が割れて演出が開始してから500ms後に</t>
+・泡が割れて演出が開始してから0.5秒後に</t>
     </r>
     <r>
       <rPr>
@@ -287,54 +304,658 @@
     <rPh sb="24" eb="25">
       <t>ウ</t>
     </rPh>
-    <rPh sb="35" eb="36">
+    <rPh sb="33" eb="34">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
       <t>ゴ</t>
     </rPh>
-    <rPh sb="38" eb="39">
+    <rPh sb="37" eb="38">
       <t>アワ</t>
     </rPh>
-    <rPh sb="40" eb="41">
+    <rPh sb="39" eb="40">
       <t>ワ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="42" eb="44">
       <t>エンシュツ</t>
     </rPh>
+    <rPh sb="45" eb="47">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>イロミ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="97" eb="101">
+      <t>ヒョウゲンホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・スイマーが強くつつく前に「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パワー溜め</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」のエフェクトが発生する
+・演出開始時、オレンジ色のラインはスイマーの周りに表示する
+・ラインはスイマーに向かって集まり、スイマー触れると消える
+・最大表示数は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>10本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・１つのラインが消えると再び、ラインの生成を行う (ループ)
+・1本ごとにラインの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>太さは異なる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・ラインの外側に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オレンジ色の光彩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を加える
+・参考：https://www.ac-illust.com/main/detail.php?id=22595376&amp;word=</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>ヒョウジスウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>コウサイ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・スイマーのパワー溜めを行った後、パワー解放の演出が始まる
+・演出時間は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>0.5秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・演出開始時はスイマーの中心から「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オレンジ色の円</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」と「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>黄色の円 ×2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」が出現して、
+　時間経過で拡大する
+・演出開始から</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>0.3秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>後には「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>イメージ図</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」のように爆発を表現する。
+　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>0.5秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>経過後には消える
+・参考：https://www.pinterest.jp/pin/682013937308418651/</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="84" eb="88">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="95" eb="99">
+      <t>エンシュツカイシ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・コード同士が繋がった時、信号のエフェクトが発生する
+・信号のエフェクトは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スタートノード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>から</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>連結して接続しているノード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>まで進み、
+　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>接続先のノードが無い場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はその場で消える
+　(最大はゴールノードまで)
+・エフェクト発生時は「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>星形のテクスチャ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」が時計回りに回転する。（回転速度は要調整）
+・星形のテクスチャの色は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ライム色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を想定</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シンゴウ</t>
+    </rPh>
     <rPh sb="46" eb="48">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>イロミ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>トウメイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="99" eb="103">
-      <t>ヒョウゲンホウホウ</t>
+      <t>レンケツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="108" eb="111">
+      <t>ハッセイジ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ホシガタ</t>
+    </rPh>
+    <rPh sb="123" eb="126">
+      <t>トケイマワ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="134" eb="138">
+      <t>カイテンソクド</t>
+    </rPh>
+    <rPh sb="139" eb="142">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ホシガタ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号のイメージ図と概要を作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
       <t>・バグを纏う時、黒いオーラで表現する
-・250msごとに</t>
+・0.25秒ごとに</t>
     </r>
     <r>
       <rPr>
@@ -444,7 +1065,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>する</t>
+      <t>する
+・表現方法はパーティクル</t>
     </r>
     <rPh sb="4" eb="5">
       <t>マト</t>
@@ -457,6 +1079,9 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビョウ</t>
     </rPh>
     <rPh sb="31" eb="33">
       <t>ホンスウ</t>
@@ -531,7 +1156,9 @@
   </si>
   <si>
     <r>
-      <t>・スイマーが強く前に「</t>
+      <t>・メインシーンへ遷移してフェードが完了した後、スタート演出が発生する
+・演出時間は0.5秒間
+・演出開始時はスイマーの出現位置に</t>
     </r>
     <r>
       <rPr>
@@ -542,7 +1169,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>パワー溜め</t>
+      <t>雨</t>
     </r>
     <r>
       <rPr>
@@ -552,12 +1179,9 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>」のエフェクトが発生する
-・演出開始時、20本あるオレンジ色のラインはスイマーの周りに表示する
-・ラインはスイマーに向かって集まり、スイマー触れると消える
-・1秒で全てのラインが集まる想定
-・全てのラインが消えると再度、ラインを20本表示する
-・1本ごとにラインの</t>
+      <t>が降り、スイマーが上半身から生成されるように
+　出現する。
+・雨には</t>
     </r>
     <r>
       <rPr>
@@ -568,7 +1192,30 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>太さは異なる</t>
+      <t>水色の光彩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を付ける
+・雨の本数は10本 (要調整)
+・スタート演出が完了すると</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スイマーを操作する事が可能</t>
     </r>
     <r>
       <rPr>
@@ -579,138 +1226,112 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-・ラインの外側に</t>
+・表現方法はパーティクル
+・
+・
+・</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>オレンジ色の光彩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を加える
-・参考：https://www.ac-illust.com/main/detail.php?id=22595376&amp;word=</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
       <t>ハッセイ</t>
     </rPh>
-    <rPh sb="30" eb="32">
+    <rPh sb="36" eb="38">
       <t>エンシュツ</t>
     </rPh>
-    <rPh sb="32" eb="35">
+    <rPh sb="38" eb="40">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
       <t>カイシジ</t>
     </rPh>
-    <rPh sb="56" eb="57">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
+    <rPh sb="61" eb="63">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
       <t>フ</t>
     </rPh>
-    <rPh sb="90" eb="91">
-      <t>キ</t>
+    <rPh sb="74" eb="77">
+      <t>ジョウハンシン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シュツゲン</t>
     </rPh>
     <rPh sb="96" eb="97">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>スベ</t>
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ミズイロ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>コウサイ</t>
     </rPh>
     <rPh sb="105" eb="106">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="132" eb="133">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
       <t>ホン</t>
     </rPh>
+    <rPh sb="120" eb="123">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>エンシュツ</t>
+    </rPh>
     <rPh sb="133" eb="135">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>フト</t>
-    </rPh>
-    <rPh sb="151" eb="152">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
       <t>コト</t>
     </rPh>
-    <rPh sb="160" eb="162">
-      <t>ソトガワ</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>コウサイ</t>
-    </rPh>
-    <rPh sb="172" eb="173">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>サンコウ</t>
+    <rPh sb="149" eb="151">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>気泡のイメージ図と概要を作成</t>
-    <rPh sb="0" eb="2">
-      <t>キホウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
+    <t>スタート演出のイメージ図と概要を作成</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バグを纏うオーラのイメージ図と概要を作成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイマーのパワー溜めのイメージ図と概要を作成</t>
+    <t>スイマーのパワー解放のイメージ図と概要を作成</t>
+    <rPh sb="8" eb="10">
+      <t>カイホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1256,6 +1877,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1298,24 +1964,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,33 +1977,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1433,10 +2054,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF6699FF"/>
-      <color rgb="FFBDD7EE"/>
-      <color rgb="FF9BC2E6"/>
-      <color rgb="FF99CCFF"/>
+      <color rgb="FF8E8B00"/>
+      <color rgb="FFFFFC8B"/>
+      <color rgb="FF767300"/>
+      <color rgb="FFACA800"/>
+      <color rgb="FF38D838"/>
+      <color rgb="FFA6D08A"/>
+      <color rgb="FF7AB94F"/>
+      <color rgb="FFD9EBCD"/>
+      <color rgb="FFECFFC1"/>
+      <color rgb="FFB4FF14"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1452,6 +2079,138 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB322AA-B993-4C59-8C67-C4CFC2B5286D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194560" y="10126980"/>
+          <a:ext cx="4076700" cy="1950720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23690EF8-5E99-4C4C-9C5F-9B4535625B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="13563600"/>
+          <a:ext cx="4069080" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -3836,16 +4595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>54113</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>31253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3860,7 +4619,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="17518380"/>
+          <a:off x="3672840" y="17846040"/>
           <a:ext cx="220980" cy="236993"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3899,16 +4658,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3923,8 +4682,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3345180" y="17823180"/>
-          <a:ext cx="236220" cy="182880"/>
+          <a:off x="4053840" y="17914620"/>
+          <a:ext cx="45720" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3962,16 +4721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3985,266 +4744,14 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3139440" y="18021300"/>
-          <a:ext cx="411480" cy="175260"/>
+        <a:xfrm flipV="1">
+          <a:off x="3634740" y="18470880"/>
+          <a:ext cx="266700" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="139700">
-            <a:schemeClr val="accent2">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直線コネクタ 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2A0269-0090-4706-B192-B93E9045930E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2727960" y="18280380"/>
-          <a:ext cx="480060" cy="38100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="139700">
-            <a:schemeClr val="accent2">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線コネクタ 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72F8871-5944-4739-843A-2CD75A9190A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3337560" y="18501360"/>
-          <a:ext cx="396240" cy="22860"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="139700">
-            <a:schemeClr val="accent2">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="直線コネクタ 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF77238E-C300-46DF-81B8-38610BFE74FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3002280" y="18775680"/>
-          <a:ext cx="358140" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="139700">
-            <a:schemeClr val="accent2">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線コネクタ 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D37FBE-969E-4B66-85A0-EA90947E934B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3855720" y="17800320"/>
-          <a:ext cx="167640" cy="312420"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent2"/>
           </a:solidFill>
@@ -4466,142 +4973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直線コネクタ 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6385083D-2383-4055-AD7F-577CE8C10388}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4762500" y="17571720"/>
-          <a:ext cx="289560" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="139700">
-            <a:schemeClr val="accent2">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直線コネクタ 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CADBE6-D197-4EEC-9010-BE96EF022CA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4632960" y="18188940"/>
-          <a:ext cx="373380" cy="106680"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="139700">
-            <a:schemeClr val="accent2">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4616,71 +4997,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4351020" y="18409920"/>
+          <a:off x="4511040" y="18348960"/>
           <a:ext cx="327660" cy="22860"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="139700">
-            <a:schemeClr val="accent2">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="直線コネクタ 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E333824-8AAD-41DC-8110-DFDE79737713}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4274820" y="18531840"/>
-          <a:ext cx="76200" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4781,16 +5099,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4805,8 +5123,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4541520" y="18569940"/>
-          <a:ext cx="274320" cy="167640"/>
+          <a:off x="4465320" y="18661380"/>
+          <a:ext cx="152400" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4844,14 +5162,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -4868,7 +5186,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4831080" y="18562320"/>
+          <a:off x="4610100" y="18562320"/>
           <a:ext cx="320040" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4907,44 +5225,1361 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210DA87C-D0F2-4A5A-B48C-5CEAD9651E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="21069300"/>
+          <a:ext cx="4076700" cy="1950720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>30</xdr:col>
+      <xdr:colOff>101760</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>78900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B05A60-97D4-7361-85A0-D00C2AB7AB22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3642360" y="21427440"/>
+          <a:ext cx="1260000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:alpha val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6268DD14-1CC3-44EA-9879-C4AE2A9DADB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3878580" y="21313140"/>
+          <a:ext cx="792480" cy="1455420"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FFFF66">
+              <a:alpha val="90000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>110940</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC744AE-491C-40FB-2929-F5B916567109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3779520" y="21564600"/>
+          <a:ext cx="972000" cy="972000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FFFF66">
+              <a:alpha val="90000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>98473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E940F48-9F2C-4AB3-BA07-F0DDB4C27C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="22136100"/>
+          <a:ext cx="45719" cy="45133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFC81"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>30479</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>121333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3104A81F-1315-4F62-BE06-8668353B8D37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4465320" y="22334220"/>
+          <a:ext cx="45719" cy="45133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFC81"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>99059</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>98473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FD57CA-350E-4DC4-B5E5-DF6FE62422C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4853940" y="21610320"/>
+          <a:ext cx="45719" cy="45133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFC81"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>53339</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>75613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629949C6-A42D-46F0-B26E-EC078E103651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808220" y="21412200"/>
+          <a:ext cx="45719" cy="45133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFC81"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>45719</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>159433</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAECCC5-B100-48D0-A56D-74C1BC64C8CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640580" y="21320760"/>
+          <a:ext cx="45719" cy="45133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFC81"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>45719</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>60373</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D794C3EF-0AFE-409E-B56D-B76D39ED38AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3840480" y="21396960"/>
+          <a:ext cx="45719" cy="45133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFC81"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>160019</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17F2ABD-3FDF-4562-887E-BF1CEB8EFDE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="21701760"/>
+          <a:ext cx="45719" cy="45133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFC81"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>136573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBBBC24-100C-4E03-8355-0A08BFDEB4C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4472940" y="21823680"/>
+          <a:ext cx="45719" cy="45133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFC81"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>144779</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>29893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B38D16-5DE2-40B2-9717-EB6BBD43AFBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4099560" y="22242780"/>
+          <a:ext cx="45719" cy="45133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFC81"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>144193</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C63E9B-CE41-484A-84CB-E39F5D18BE0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4472940" y="22532340"/>
+          <a:ext cx="45719" cy="45133"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFC81"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4AE142-7D6B-448C-8719-822DFB13DFFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2263140" y="6377940"/>
+          <a:ext cx="4076700" cy="1950720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>104640</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>5580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="楕円 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86EF863-5A34-03F3-9AAC-388AEC5948A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3665220" y="6812280"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="228600">
+            <a:schemeClr val="bg1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="星: 4 pt 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825E38F9-2552-9942-2309-70B309023F89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3398520" y="6530340"/>
+          <a:ext cx="1592580" cy="1684020"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="B4FF14">
+            <a:alpha val="98000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="8E8B00"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="127000">
+            <a:srgbClr val="8E8B00">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矢印: 右 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10B9CDD-ABD6-CDE0-3E64-1CF26CD25798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931920" y="10858500"/>
+          <a:ext cx="762000" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>60675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>139530</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>15149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11EA9C3-FA01-04C6-5E17-D8C73A683ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4998720" y="10911555"/>
+          <a:ext cx="901530" cy="480254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>69292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>63330</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>7529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CC1A72-C976-19E2-D608-DC5FBE33572D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="10935412"/>
+          <a:ext cx="871050" cy="464017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="直線コネクタ 106">
+        <xdr:cNvPr id="71" name="直線コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C418B0E-8BA2-4D47-B1FC-C4E92254FE3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B13E29-44DA-93B6-DBE2-51321A723E64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4930140" y="18387060"/>
-          <a:ext cx="327660" cy="45720"/>
+        <a:xfrm>
+          <a:off x="3314700" y="10546080"/>
+          <a:ext cx="0" cy="944880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="9525">
+        <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:srgbClr val="00B0F0"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
           <a:glow rad="139700">
-            <a:schemeClr val="accent2">
+            <a:schemeClr val="accent5">
               <a:satMod val="175000"/>
               <a:alpha val="40000"/>
             </a:schemeClr>
@@ -4970,23 +6605,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="直線コネクタ 108">
+        <xdr:cNvPr id="79" name="直線コネクタ 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3775FD69-4F74-4F76-B507-B21D1995244E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73F1276-B072-44F0-A52A-0F49A00FFAF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4994,20 +6629,20 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5242560" y="18554700"/>
-          <a:ext cx="274320" cy="99060"/>
+          <a:off x="3215640" y="10538460"/>
+          <a:ext cx="0" cy="944880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700">
+        <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:srgbClr val="00B0F0"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
           <a:glow rad="139700">
-            <a:schemeClr val="accent2">
+            <a:schemeClr val="accent5">
               <a:satMod val="175000"/>
               <a:alpha val="40000"/>
             </a:schemeClr>
@@ -5033,44 +6668,485 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線コネクタ 109">
+        <xdr:cNvPr id="82" name="直線コネクタ 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D808D9-3ED0-4DDE-9326-D3A5280E76D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9913AA4D-8F05-443B-A3A2-0FFF523BF668}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4991100" y="17868900"/>
-          <a:ext cx="373380" cy="106680"/>
+        <a:xfrm>
+          <a:off x="3093720" y="10538460"/>
+          <a:ext cx="0" cy="944880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700">
+        <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:srgbClr val="00B0F0"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
           <a:glow rad="139700">
-            <a:schemeClr val="accent2">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AC0726-FA64-4B45-AACC-E7E5FB95764C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2987040" y="10538460"/>
+          <a:ext cx="0" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="139700">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A60711D-C317-473D-95B2-6C3FCD32CD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2887980" y="10546080"/>
+          <a:ext cx="0" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="139700">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090DD998-5CF3-436C-9CA2-3D8F6106E6D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2788920" y="10546080"/>
+          <a:ext cx="0" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="139700">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00454481-A491-4BD8-A494-B657F0CE809E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="10530840"/>
+          <a:ext cx="0" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="139700">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538B0D5F-1ABB-4C6F-9F6A-3DD44852A07D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3413760" y="10546080"/>
+          <a:ext cx="0" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="139700">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1EDB37-599E-42C7-8D10-A44EEB38A90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="10523220"/>
+          <a:ext cx="0" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="139700">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028F8B76-D10E-427E-B000-A1A8AA65BA88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="10530840"/>
+          <a:ext cx="0" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="139700">
+            <a:schemeClr val="accent5">
               <a:satMod val="175000"/>
               <a:alpha val="40000"/>
             </a:schemeClr>
@@ -5405,2132 +7481,2238 @@
     <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
+    <row r="1" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:73" s="2" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:73" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+    <row r="2" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:73" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:73" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="6" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:73" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="20"/>
     </row>
     <row r="6" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="I7" s="23" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="I7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="23"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="23"/>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="23"/>
-      <c r="AU7" s="23"/>
-      <c r="AV7" s="23"/>
-      <c r="AW7" s="23"/>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="23"/>
-      <c r="BA7" s="23"/>
-      <c r="BB7" s="23"/>
-      <c r="BC7" s="23"/>
-      <c r="BD7" s="23"/>
-      <c r="BE7" s="23"/>
-      <c r="BF7" s="23"/>
-      <c r="BG7" s="23"/>
-      <c r="BH7" s="23"/>
-      <c r="BI7" s="23"/>
-      <c r="BJ7" s="23"/>
-      <c r="BK7" s="23"/>
-      <c r="BL7" s="23"/>
-      <c r="BM7" s="23"/>
-      <c r="BN7" s="23"/>
-      <c r="BO7" s="23"/>
-      <c r="BP7" s="23"/>
-      <c r="BQ7" s="23"/>
-      <c r="BR7" s="23"/>
-      <c r="BS7" s="23"/>
-      <c r="BT7" s="23"/>
-      <c r="BU7" s="23"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="32"/>
+      <c r="BD7" s="32"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="32"/>
+      <c r="BG7" s="32"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="32"/>
+      <c r="BJ7" s="32"/>
+      <c r="BK7" s="32"/>
+      <c r="BL7" s="32"/>
+      <c r="BM7" s="32"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="32"/>
+      <c r="BP7" s="32"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="32"/>
+      <c r="BS7" s="32"/>
+      <c r="BT7" s="32"/>
+      <c r="BU7" s="32"/>
     </row>
     <row r="8" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="23"/>
-      <c r="AW8" s="23"/>
-      <c r="AX8" s="23"/>
-      <c r="AY8" s="23"/>
-      <c r="AZ8" s="23"/>
-      <c r="BA8" s="23"/>
-      <c r="BB8" s="23"/>
-      <c r="BC8" s="23"/>
-      <c r="BD8" s="23"/>
-      <c r="BE8" s="23"/>
-      <c r="BF8" s="23"/>
-      <c r="BG8" s="23"/>
-      <c r="BH8" s="23"/>
-      <c r="BI8" s="23"/>
-      <c r="BJ8" s="23"/>
-      <c r="BK8" s="23"/>
-      <c r="BL8" s="23"/>
-      <c r="BM8" s="23"/>
-      <c r="BN8" s="23"/>
-      <c r="BO8" s="23"/>
-      <c r="BP8" s="23"/>
-      <c r="BQ8" s="23"/>
-      <c r="BR8" s="23"/>
-      <c r="BS8" s="23"/>
-      <c r="BT8" s="23"/>
-      <c r="BU8" s="23"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="32"/>
+      <c r="BD8" s="32"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="32"/>
+      <c r="BG8" s="32"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="32"/>
+      <c r="BM8" s="32"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="32"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="32"/>
+      <c r="BS8" s="32"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="32"/>
     </row>
     <row r="9" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23"/>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23"/>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23"/>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23"/>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="23"/>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23"/>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23"/>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23"/>
-      <c r="BO9" s="23"/>
-      <c r="BP9" s="23"/>
-      <c r="BQ9" s="23"/>
-      <c r="BR9" s="23"/>
-      <c r="BS9" s="23"/>
-      <c r="BT9" s="23"/>
-      <c r="BU9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32"/>
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32"/>
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32"/>
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32"/>
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
     </row>
     <row r="10" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="I10" s="24" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="I10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="26" t="s">
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="22" t="s">
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-      <c r="AU10" s="22"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="22"/>
-      <c r="AY10" s="22"/>
-      <c r="AZ10" s="22"/>
-      <c r="BA10" s="22"/>
-      <c r="BB10" s="22"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="22"/>
-      <c r="BE10" s="22"/>
-      <c r="BF10" s="22"/>
-      <c r="BG10" s="22"/>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="22"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="22"/>
-      <c r="BL10" s="22"/>
-      <c r="BM10" s="22"/>
-      <c r="BN10" s="22"/>
-      <c r="BO10" s="22"/>
-      <c r="BP10" s="22"/>
-      <c r="BQ10" s="22"/>
-      <c r="BR10" s="22"/>
-      <c r="BS10" s="22"/>
-      <c r="BT10" s="22"/>
-      <c r="BU10" s="22"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="31"/>
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="31"/>
+      <c r="BC10" s="31"/>
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="31"/>
+      <c r="BF10" s="31"/>
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="31"/>
+      <c r="BI10" s="31"/>
+      <c r="BJ10" s="31"/>
+      <c r="BK10" s="31"/>
+      <c r="BL10" s="31"/>
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="31"/>
+      <c r="BO10" s="31"/>
+      <c r="BP10" s="31"/>
+      <c r="BQ10" s="31"/>
+      <c r="BR10" s="31"/>
+      <c r="BS10" s="31"/>
+      <c r="BT10" s="31"/>
+      <c r="BU10" s="31"/>
     </row>
     <row r="11" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="22"/>
-      <c r="AR11" s="22"/>
-      <c r="AS11" s="22"/>
-      <c r="AT11" s="22"/>
-      <c r="AU11" s="22"/>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22"/>
-      <c r="AX11" s="22"/>
-      <c r="AY11" s="22"/>
-      <c r="AZ11" s="22"/>
-      <c r="BA11" s="22"/>
-      <c r="BB11" s="22"/>
-      <c r="BC11" s="22"/>
-      <c r="BD11" s="22"/>
-      <c r="BE11" s="22"/>
-      <c r="BF11" s="22"/>
-      <c r="BG11" s="22"/>
-      <c r="BH11" s="22"/>
-      <c r="BI11" s="22"/>
-      <c r="BJ11" s="22"/>
-      <c r="BK11" s="22"/>
-      <c r="BL11" s="22"/>
-      <c r="BM11" s="22"/>
-      <c r="BN11" s="22"/>
-      <c r="BO11" s="22"/>
-      <c r="BP11" s="22"/>
-      <c r="BQ11" s="22"/>
-      <c r="BR11" s="22"/>
-      <c r="BS11" s="22"/>
-      <c r="BT11" s="22"/>
-      <c r="BU11" s="22"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="31"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="31"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="31"/>
     </row>
     <row r="12" spans="1:73" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="22"/>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-      <c r="AT12" s="22"/>
-      <c r="AU12" s="22"/>
-      <c r="AV12" s="22"/>
-      <c r="AW12" s="22"/>
-      <c r="AX12" s="22"/>
-      <c r="AY12" s="22"/>
-      <c r="AZ12" s="22"/>
-      <c r="BA12" s="22"/>
-      <c r="BB12" s="22"/>
-      <c r="BC12" s="22"/>
-      <c r="BD12" s="22"/>
-      <c r="BE12" s="22"/>
-      <c r="BF12" s="22"/>
-      <c r="BG12" s="22"/>
-      <c r="BH12" s="22"/>
-      <c r="BI12" s="22"/>
-      <c r="BJ12" s="22"/>
-      <c r="BK12" s="22"/>
-      <c r="BL12" s="22"/>
-      <c r="BM12" s="22"/>
-      <c r="BN12" s="22"/>
-      <c r="BO12" s="22"/>
-      <c r="BP12" s="22"/>
-      <c r="BQ12" s="22"/>
-      <c r="BR12" s="22"/>
-      <c r="BS12" s="22"/>
-      <c r="BT12" s="22"/>
-      <c r="BU12" s="22"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="31"/>
+      <c r="BO12" s="31"/>
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="31"/>
+      <c r="BU12" s="31"/>
     </row>
     <row r="13" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="I13" s="29">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="I13" s="14">
         <v>44895</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="27" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27" t="s">
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27" t="s">
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="27"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="27"/>
-      <c r="BG13" s="27"/>
-      <c r="BH13" s="27"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
-      <c r="BK13" s="27"/>
-      <c r="BL13" s="27"/>
-      <c r="BM13" s="27"/>
-      <c r="BN13" s="27"/>
-      <c r="BO13" s="27"/>
-      <c r="BP13" s="27"/>
-      <c r="BQ13" s="27"/>
-      <c r="BR13" s="27"/>
-      <c r="BS13" s="27"/>
-      <c r="BT13" s="27"/>
-      <c r="BU13" s="27"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="6"/>
+      <c r="BN13" s="6"/>
+      <c r="BO13" s="6"/>
+      <c r="BP13" s="6"/>
+      <c r="BQ13" s="6"/>
+      <c r="BR13" s="6"/>
+      <c r="BS13" s="6"/>
+      <c r="BT13" s="6"/>
+      <c r="BU13" s="6"/>
     </row>
     <row r="14" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="I14" s="32">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="7">
         <v>44900</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="28" t="s">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="35" t="s">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="28" t="s">
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="28"/>
-      <c r="BE14" s="28"/>
-      <c r="BF14" s="28"/>
-      <c r="BG14" s="28"/>
-      <c r="BH14" s="28"/>
-      <c r="BI14" s="28"/>
-      <c r="BJ14" s="28"/>
-      <c r="BK14" s="28"/>
-      <c r="BL14" s="28"/>
-      <c r="BM14" s="28"/>
-      <c r="BN14" s="28"/>
-      <c r="BO14" s="28"/>
-      <c r="BP14" s="28"/>
-      <c r="BQ14" s="28"/>
-      <c r="BR14" s="28"/>
-      <c r="BS14" s="28"/>
-      <c r="BT14" s="28"/>
-      <c r="BU14" s="28"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="2"/>
     </row>
     <row r="15" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="I15" s="32">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="I15" s="7">
         <v>44900</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="28" t="s">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="35" t="s">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="28" t="s">
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="28"/>
-      <c r="BA15" s="28"/>
-      <c r="BB15" s="28"/>
-      <c r="BC15" s="28"/>
-      <c r="BD15" s="28"/>
-      <c r="BE15" s="28"/>
-      <c r="BF15" s="28"/>
-      <c r="BG15" s="28"/>
-      <c r="BH15" s="28"/>
-      <c r="BI15" s="28"/>
-      <c r="BJ15" s="28"/>
-      <c r="BK15" s="28"/>
-      <c r="BL15" s="28"/>
-      <c r="BM15" s="28"/>
-      <c r="BN15" s="28"/>
-      <c r="BO15" s="28"/>
-      <c r="BP15" s="28"/>
-      <c r="BQ15" s="28"/>
-      <c r="BR15" s="28"/>
-      <c r="BS15" s="28"/>
-      <c r="BT15" s="28"/>
-      <c r="BU15" s="28"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="2"/>
+      <c r="BU15" s="2"/>
     </row>
     <row r="16" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="I16" s="32">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="I16" s="7">
         <v>44984</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="28" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28" t="s">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28" t="s">
-        <v>18</v>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2" t="s">
+        <v>17</v>
       </c>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
-      <c r="BA16" s="28"/>
-      <c r="BB16" s="28"/>
-      <c r="BC16" s="28"/>
-      <c r="BD16" s="28"/>
-      <c r="BE16" s="28"/>
-      <c r="BF16" s="28"/>
-      <c r="BG16" s="28"/>
-      <c r="BH16" s="28"/>
-      <c r="BI16" s="28"/>
-      <c r="BJ16" s="28"/>
-      <c r="BK16" s="28"/>
-      <c r="BL16" s="28"/>
-      <c r="BM16" s="28"/>
-      <c r="BN16" s="28"/>
-      <c r="BO16" s="28"/>
-      <c r="BP16" s="28"/>
-      <c r="BQ16" s="28"/>
-      <c r="BR16" s="28"/>
-      <c r="BS16" s="28"/>
-      <c r="BT16" s="28"/>
-      <c r="BU16" s="28"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="2"/>
     </row>
     <row r="17" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="I17" s="32">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="I17" s="7">
         <v>45021</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="28" t="s">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28" t="s">
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28" t="s">
-        <v>30</v>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2" t="s">
+        <v>26</v>
       </c>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="28"/>
-      <c r="AT17" s="28"/>
-      <c r="AU17" s="28"/>
-      <c r="AV17" s="28"/>
-      <c r="AW17" s="28"/>
-      <c r="AX17" s="28"/>
-      <c r="AY17" s="28"/>
-      <c r="AZ17" s="28"/>
-      <c r="BA17" s="28"/>
-      <c r="BB17" s="28"/>
-      <c r="BC17" s="28"/>
-      <c r="BD17" s="28"/>
-      <c r="BE17" s="28"/>
-      <c r="BF17" s="28"/>
-      <c r="BG17" s="28"/>
-      <c r="BH17" s="28"/>
-      <c r="BI17" s="28"/>
-      <c r="BJ17" s="28"/>
-      <c r="BK17" s="28"/>
-      <c r="BL17" s="28"/>
-      <c r="BM17" s="28"/>
-      <c r="BN17" s="28"/>
-      <c r="BO17" s="28"/>
-      <c r="BP17" s="28"/>
-      <c r="BQ17" s="28"/>
-      <c r="BR17" s="28"/>
-      <c r="BS17" s="28"/>
-      <c r="BT17" s="28"/>
-      <c r="BU17" s="28"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
     </row>
     <row r="18" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="I18" s="32">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="7">
         <v>45021</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="28" t="s">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28" t="s">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28" t="s">
-        <v>31</v>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2" t="s">
+        <v>27</v>
       </c>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="28"/>
-      <c r="BA18" s="28"/>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="28"/>
-      <c r="BE18" s="28"/>
-      <c r="BF18" s="28"/>
-      <c r="BG18" s="28"/>
-      <c r="BH18" s="28"/>
-      <c r="BI18" s="28"/>
-      <c r="BJ18" s="28"/>
-      <c r="BK18" s="28"/>
-      <c r="BL18" s="28"/>
-      <c r="BM18" s="28"/>
-      <c r="BN18" s="28"/>
-      <c r="BO18" s="28"/>
-      <c r="BP18" s="28"/>
-      <c r="BQ18" s="28"/>
-      <c r="BR18" s="28"/>
-      <c r="BS18" s="28"/>
-      <c r="BT18" s="28"/>
-      <c r="BU18" s="28"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
     </row>
     <row r="19" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="I19" s="32">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="I19" s="7">
         <v>45021</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="28" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28" t="s">
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
-      <c r="AP19" s="28"/>
-      <c r="AQ19" s="28" t="s">
-        <v>32</v>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2" t="s">
+        <v>28</v>
       </c>
-      <c r="AR19" s="28"/>
-      <c r="AS19" s="28"/>
-      <c r="AT19" s="28"/>
-      <c r="AU19" s="28"/>
-      <c r="AV19" s="28"/>
-      <c r="AW19" s="28"/>
-      <c r="AX19" s="28"/>
-      <c r="AY19" s="28"/>
-      <c r="AZ19" s="28"/>
-      <c r="BA19" s="28"/>
-      <c r="BB19" s="28"/>
-      <c r="BC19" s="28"/>
-      <c r="BD19" s="28"/>
-      <c r="BE19" s="28"/>
-      <c r="BF19" s="28"/>
-      <c r="BG19" s="28"/>
-      <c r="BH19" s="28"/>
-      <c r="BI19" s="28"/>
-      <c r="BJ19" s="28"/>
-      <c r="BK19" s="28"/>
-      <c r="BL19" s="28"/>
-      <c r="BM19" s="28"/>
-      <c r="BN19" s="28"/>
-      <c r="BO19" s="28"/>
-      <c r="BP19" s="28"/>
-      <c r="BQ19" s="28"/>
-      <c r="BR19" s="28"/>
-      <c r="BS19" s="28"/>
-      <c r="BT19" s="28"/>
-      <c r="BU19" s="28"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
     </row>
     <row r="20" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="28"/>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="28"/>
-      <c r="AT20" s="28"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="28"/>
-      <c r="AY20" s="28"/>
-      <c r="AZ20" s="28"/>
-      <c r="BA20" s="28"/>
-      <c r="BB20" s="28"/>
-      <c r="BC20" s="28"/>
-      <c r="BD20" s="28"/>
-      <c r="BE20" s="28"/>
-      <c r="BF20" s="28"/>
-      <c r="BG20" s="28"/>
-      <c r="BH20" s="28"/>
-      <c r="BI20" s="28"/>
-      <c r="BJ20" s="28"/>
-      <c r="BK20" s="28"/>
-      <c r="BL20" s="28"/>
-      <c r="BM20" s="28"/>
-      <c r="BN20" s="28"/>
-      <c r="BO20" s="28"/>
-      <c r="BP20" s="28"/>
-      <c r="BQ20" s="28"/>
-      <c r="BR20" s="28"/>
-      <c r="BS20" s="28"/>
-      <c r="BT20" s="28"/>
-      <c r="BU20" s="28"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="7">
+        <v>45024</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
     </row>
     <row r="21" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="28"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="28"/>
-      <c r="AU21" s="28"/>
-      <c r="AV21" s="28"/>
-      <c r="AW21" s="28"/>
-      <c r="AX21" s="28"/>
-      <c r="AY21" s="28"/>
-      <c r="AZ21" s="28"/>
-      <c r="BA21" s="28"/>
-      <c r="BB21" s="28"/>
-      <c r="BC21" s="28"/>
-      <c r="BD21" s="28"/>
-      <c r="BE21" s="28"/>
-      <c r="BF21" s="28"/>
-      <c r="BG21" s="28"/>
-      <c r="BH21" s="28"/>
-      <c r="BI21" s="28"/>
-      <c r="BJ21" s="28"/>
-      <c r="BK21" s="28"/>
-      <c r="BL21" s="28"/>
-      <c r="BM21" s="28"/>
-      <c r="BN21" s="28"/>
-      <c r="BO21" s="28"/>
-      <c r="BP21" s="28"/>
-      <c r="BQ21" s="28"/>
-      <c r="BR21" s="28"/>
-      <c r="BS21" s="28"/>
-      <c r="BT21" s="28"/>
-      <c r="BU21" s="28"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="I21" s="7">
+        <v>45024</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
     </row>
     <row r="22" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="28"/>
-      <c r="AR22" s="28"/>
-      <c r="AS22" s="28"/>
-      <c r="AT22" s="28"/>
-      <c r="AU22" s="28"/>
-      <c r="AV22" s="28"/>
-      <c r="AW22" s="28"/>
-      <c r="AX22" s="28"/>
-      <c r="AY22" s="28"/>
-      <c r="AZ22" s="28"/>
-      <c r="BA22" s="28"/>
-      <c r="BB22" s="28"/>
-      <c r="BC22" s="28"/>
-      <c r="BD22" s="28"/>
-      <c r="BE22" s="28"/>
-      <c r="BF22" s="28"/>
-      <c r="BG22" s="28"/>
-      <c r="BH22" s="28"/>
-      <c r="BI22" s="28"/>
-      <c r="BJ22" s="28"/>
-      <c r="BK22" s="28"/>
-      <c r="BL22" s="28"/>
-      <c r="BM22" s="28"/>
-      <c r="BN22" s="28"/>
-      <c r="BO22" s="28"/>
-      <c r="BP22" s="28"/>
-      <c r="BQ22" s="28"/>
-      <c r="BR22" s="28"/>
-      <c r="BS22" s="28"/>
-      <c r="BT22" s="28"/>
-      <c r="BU22" s="28"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="I22" s="7">
+        <v>45024</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="2"/>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="2"/>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
+      <c r="BU22" s="2"/>
     </row>
     <row r="23" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="28"/>
-      <c r="AY23" s="28"/>
-      <c r="AZ23" s="28"/>
-      <c r="BA23" s="28"/>
-      <c r="BB23" s="28"/>
-      <c r="BC23" s="28"/>
-      <c r="BD23" s="28"/>
-      <c r="BE23" s="28"/>
-      <c r="BF23" s="28"/>
-      <c r="BG23" s="28"/>
-      <c r="BH23" s="28"/>
-      <c r="BI23" s="28"/>
-      <c r="BJ23" s="28"/>
-      <c r="BK23" s="28"/>
-      <c r="BL23" s="28"/>
-      <c r="BM23" s="28"/>
-      <c r="BN23" s="28"/>
-      <c r="BO23" s="28"/>
-      <c r="BP23" s="28"/>
-      <c r="BQ23" s="28"/>
-      <c r="BR23" s="28"/>
-      <c r="BS23" s="28"/>
-      <c r="BT23" s="28"/>
-      <c r="BU23" s="28"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
     </row>
     <row r="24" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
-      <c r="BA24" s="28"/>
-      <c r="BB24" s="28"/>
-      <c r="BC24" s="28"/>
-      <c r="BD24" s="28"/>
-      <c r="BE24" s="28"/>
-      <c r="BF24" s="28"/>
-      <c r="BG24" s="28"/>
-      <c r="BH24" s="28"/>
-      <c r="BI24" s="28"/>
-      <c r="BJ24" s="28"/>
-      <c r="BK24" s="28"/>
-      <c r="BL24" s="28"/>
-      <c r="BM24" s="28"/>
-      <c r="BN24" s="28"/>
-      <c r="BO24" s="28"/>
-      <c r="BP24" s="28"/>
-      <c r="BQ24" s="28"/>
-      <c r="BR24" s="28"/>
-      <c r="BS24" s="28"/>
-      <c r="BT24" s="28"/>
-      <c r="BU24" s="28"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
     </row>
     <row r="25" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="28"/>
-      <c r="AQ25" s="28"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="28"/>
-      <c r="AW25" s="28"/>
-      <c r="AX25" s="28"/>
-      <c r="AY25" s="28"/>
-      <c r="AZ25" s="28"/>
-      <c r="BA25" s="28"/>
-      <c r="BB25" s="28"/>
-      <c r="BC25" s="28"/>
-      <c r="BD25" s="28"/>
-      <c r="BE25" s="28"/>
-      <c r="BF25" s="28"/>
-      <c r="BG25" s="28"/>
-      <c r="BH25" s="28"/>
-      <c r="BI25" s="28"/>
-      <c r="BJ25" s="28"/>
-      <c r="BK25" s="28"/>
-      <c r="BL25" s="28"/>
-      <c r="BM25" s="28"/>
-      <c r="BN25" s="28"/>
-      <c r="BO25" s="28"/>
-      <c r="BP25" s="28"/>
-      <c r="BQ25" s="28"/>
-      <c r="BR25" s="28"/>
-      <c r="BS25" s="28"/>
-      <c r="BT25" s="28"/>
-      <c r="BU25" s="28"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
     </row>
     <row r="26" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="28"/>
-      <c r="AO26" s="28"/>
-      <c r="AP26" s="28"/>
-      <c r="AQ26" s="28"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
-      <c r="AT26" s="28"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="28"/>
-      <c r="AW26" s="28"/>
-      <c r="AX26" s="28"/>
-      <c r="AY26" s="28"/>
-      <c r="AZ26" s="28"/>
-      <c r="BA26" s="28"/>
-      <c r="BB26" s="28"/>
-      <c r="BC26" s="28"/>
-      <c r="BD26" s="28"/>
-      <c r="BE26" s="28"/>
-      <c r="BF26" s="28"/>
-      <c r="BG26" s="28"/>
-      <c r="BH26" s="28"/>
-      <c r="BI26" s="28"/>
-      <c r="BJ26" s="28"/>
-      <c r="BK26" s="28"/>
-      <c r="BL26" s="28"/>
-      <c r="BM26" s="28"/>
-      <c r="BN26" s="28"/>
-      <c r="BO26" s="28"/>
-      <c r="BP26" s="28"/>
-      <c r="BQ26" s="28"/>
-      <c r="BR26" s="28"/>
-      <c r="BS26" s="28"/>
-      <c r="BT26" s="28"/>
-      <c r="BU26" s="28"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
     </row>
     <row r="27" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
-      <c r="AP27" s="28"/>
-      <c r="AQ27" s="28"/>
-      <c r="AR27" s="28"/>
-      <c r="AS27" s="28"/>
-      <c r="AT27" s="28"/>
-      <c r="AU27" s="28"/>
-      <c r="AV27" s="28"/>
-      <c r="AW27" s="28"/>
-      <c r="AX27" s="28"/>
-      <c r="AY27" s="28"/>
-      <c r="AZ27" s="28"/>
-      <c r="BA27" s="28"/>
-      <c r="BB27" s="28"/>
-      <c r="BC27" s="28"/>
-      <c r="BD27" s="28"/>
-      <c r="BE27" s="28"/>
-      <c r="BF27" s="28"/>
-      <c r="BG27" s="28"/>
-      <c r="BH27" s="28"/>
-      <c r="BI27" s="28"/>
-      <c r="BJ27" s="28"/>
-      <c r="BK27" s="28"/>
-      <c r="BL27" s="28"/>
-      <c r="BM27" s="28"/>
-      <c r="BN27" s="28"/>
-      <c r="BO27" s="28"/>
-      <c r="BP27" s="28"/>
-      <c r="BQ27" s="28"/>
-      <c r="BR27" s="28"/>
-      <c r="BS27" s="28"/>
-      <c r="BT27" s="28"/>
-      <c r="BU27" s="28"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="2"/>
     </row>
     <row r="28" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="28"/>
-      <c r="AQ28" s="28"/>
-      <c r="AR28" s="28"/>
-      <c r="AS28" s="28"/>
-      <c r="AT28" s="28"/>
-      <c r="AU28" s="28"/>
-      <c r="AV28" s="28"/>
-      <c r="AW28" s="28"/>
-      <c r="AX28" s="28"/>
-      <c r="AY28" s="28"/>
-      <c r="AZ28" s="28"/>
-      <c r="BA28" s="28"/>
-      <c r="BB28" s="28"/>
-      <c r="BC28" s="28"/>
-      <c r="BD28" s="28"/>
-      <c r="BE28" s="28"/>
-      <c r="BF28" s="28"/>
-      <c r="BG28" s="28"/>
-      <c r="BH28" s="28"/>
-      <c r="BI28" s="28"/>
-      <c r="BJ28" s="28"/>
-      <c r="BK28" s="28"/>
-      <c r="BL28" s="28"/>
-      <c r="BM28" s="28"/>
-      <c r="BN28" s="28"/>
-      <c r="BO28" s="28"/>
-      <c r="BP28" s="28"/>
-      <c r="BQ28" s="28"/>
-      <c r="BR28" s="28"/>
-      <c r="BS28" s="28"/>
-      <c r="BT28" s="28"/>
-      <c r="BU28" s="28"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
     </row>
     <row r="29" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="28"/>
-      <c r="AM29" s="28"/>
-      <c r="AN29" s="28"/>
-      <c r="AO29" s="28"/>
-      <c r="AP29" s="28"/>
-      <c r="AQ29" s="28"/>
-      <c r="AR29" s="28"/>
-      <c r="AS29" s="28"/>
-      <c r="AT29" s="28"/>
-      <c r="AU29" s="28"/>
-      <c r="AV29" s="28"/>
-      <c r="AW29" s="28"/>
-      <c r="AX29" s="28"/>
-      <c r="AY29" s="28"/>
-      <c r="AZ29" s="28"/>
-      <c r="BA29" s="28"/>
-      <c r="BB29" s="28"/>
-      <c r="BC29" s="28"/>
-      <c r="BD29" s="28"/>
-      <c r="BE29" s="28"/>
-      <c r="BF29" s="28"/>
-      <c r="BG29" s="28"/>
-      <c r="BH29" s="28"/>
-      <c r="BI29" s="28"/>
-      <c r="BJ29" s="28"/>
-      <c r="BK29" s="28"/>
-      <c r="BL29" s="28"/>
-      <c r="BM29" s="28"/>
-      <c r="BN29" s="28"/>
-      <c r="BO29" s="28"/>
-      <c r="BP29" s="28"/>
-      <c r="BQ29" s="28"/>
-      <c r="BR29" s="28"/>
-      <c r="BS29" s="28"/>
-      <c r="BT29" s="28"/>
-      <c r="BU29" s="28"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
     </row>
     <row r="30" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="28"/>
-      <c r="AL30" s="28"/>
-      <c r="AM30" s="28"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28"/>
-      <c r="AQ30" s="28"/>
-      <c r="AR30" s="28"/>
-      <c r="AS30" s="28"/>
-      <c r="AT30" s="28"/>
-      <c r="AU30" s="28"/>
-      <c r="AV30" s="28"/>
-      <c r="AW30" s="28"/>
-      <c r="AX30" s="28"/>
-      <c r="AY30" s="28"/>
-      <c r="AZ30" s="28"/>
-      <c r="BA30" s="28"/>
-      <c r="BB30" s="28"/>
-      <c r="BC30" s="28"/>
-      <c r="BD30" s="28"/>
-      <c r="BE30" s="28"/>
-      <c r="BF30" s="28"/>
-      <c r="BG30" s="28"/>
-      <c r="BH30" s="28"/>
-      <c r="BI30" s="28"/>
-      <c r="BJ30" s="28"/>
-      <c r="BK30" s="28"/>
-      <c r="BL30" s="28"/>
-      <c r="BM30" s="28"/>
-      <c r="BN30" s="28"/>
-      <c r="BO30" s="28"/>
-      <c r="BP30" s="28"/>
-      <c r="BQ30" s="28"/>
-      <c r="BR30" s="28"/>
-      <c r="BS30" s="28"/>
-      <c r="BT30" s="28"/>
-      <c r="BU30" s="28"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="2"/>
     </row>
     <row r="31" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="28"/>
-      <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="28"/>
-      <c r="AU31" s="28"/>
-      <c r="AV31" s="28"/>
-      <c r="AW31" s="28"/>
-      <c r="AX31" s="28"/>
-      <c r="AY31" s="28"/>
-      <c r="AZ31" s="28"/>
-      <c r="BA31" s="28"/>
-      <c r="BB31" s="28"/>
-      <c r="BC31" s="28"/>
-      <c r="BD31" s="28"/>
-      <c r="BE31" s="28"/>
-      <c r="BF31" s="28"/>
-      <c r="BG31" s="28"/>
-      <c r="BH31" s="28"/>
-      <c r="BI31" s="28"/>
-      <c r="BJ31" s="28"/>
-      <c r="BK31" s="28"/>
-      <c r="BL31" s="28"/>
-      <c r="BM31" s="28"/>
-      <c r="BN31" s="28"/>
-      <c r="BO31" s="28"/>
-      <c r="BP31" s="28"/>
-      <c r="BQ31" s="28"/>
-      <c r="BR31" s="28"/>
-      <c r="BS31" s="28"/>
-      <c r="BT31" s="28"/>
-      <c r="BU31" s="28"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="2"/>
     </row>
     <row r="32" spans="1:73" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="A4:XFD5"/>
+    <mergeCell ref="A6:G7"/>
+    <mergeCell ref="A8:G9"/>
+    <mergeCell ref="A10:G11"/>
+    <mergeCell ref="A12:G13"/>
+    <mergeCell ref="AQ10:BU12"/>
+    <mergeCell ref="A50:G51"/>
+    <mergeCell ref="I7:BU9"/>
+    <mergeCell ref="I10:S12"/>
+    <mergeCell ref="T10:AA12"/>
+    <mergeCell ref="AB10:AP12"/>
+    <mergeCell ref="A38:G39"/>
+    <mergeCell ref="A40:G41"/>
+    <mergeCell ref="A42:G43"/>
+    <mergeCell ref="A44:G45"/>
+    <mergeCell ref="A46:G47"/>
+    <mergeCell ref="A48:G49"/>
+    <mergeCell ref="A26:G27"/>
+    <mergeCell ref="A28:G29"/>
+    <mergeCell ref="A30:G31"/>
+    <mergeCell ref="A32:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="A14:G15"/>
+    <mergeCell ref="A16:G17"/>
+    <mergeCell ref="A18:G19"/>
+    <mergeCell ref="A20:G21"/>
+    <mergeCell ref="A22:G23"/>
+    <mergeCell ref="A24:G25"/>
+    <mergeCell ref="AB13:AP13"/>
+    <mergeCell ref="AQ13:BU13"/>
+    <mergeCell ref="T18:AA18"/>
+    <mergeCell ref="I13:S13"/>
+    <mergeCell ref="I14:S14"/>
+    <mergeCell ref="I19:S19"/>
+    <mergeCell ref="I20:S20"/>
+    <mergeCell ref="I21:S21"/>
+    <mergeCell ref="I22:S22"/>
+    <mergeCell ref="AQ14:BU14"/>
+    <mergeCell ref="AB14:AP14"/>
+    <mergeCell ref="AB15:AP15"/>
+    <mergeCell ref="AB16:AP16"/>
+    <mergeCell ref="AB17:AP17"/>
+    <mergeCell ref="AB18:AP18"/>
+    <mergeCell ref="AB19:AP19"/>
+    <mergeCell ref="AB20:AP20"/>
+    <mergeCell ref="AB21:AP21"/>
+    <mergeCell ref="I27:S27"/>
+    <mergeCell ref="I28:S28"/>
+    <mergeCell ref="I29:S29"/>
+    <mergeCell ref="I30:S30"/>
+    <mergeCell ref="I31:S31"/>
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="T14:AA14"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="T16:AA16"/>
+    <mergeCell ref="T17:AA17"/>
+    <mergeCell ref="I15:S15"/>
+    <mergeCell ref="I16:S16"/>
+    <mergeCell ref="I17:S17"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="I23:S23"/>
+    <mergeCell ref="I24:S24"/>
+    <mergeCell ref="I25:S25"/>
+    <mergeCell ref="I26:S26"/>
+    <mergeCell ref="T31:AA31"/>
+    <mergeCell ref="T25:AA25"/>
+    <mergeCell ref="T26:AA26"/>
+    <mergeCell ref="T27:AA27"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="T29:AA29"/>
+    <mergeCell ref="T30:AA30"/>
+    <mergeCell ref="T19:AA19"/>
+    <mergeCell ref="T20:AA20"/>
+    <mergeCell ref="T21:AA21"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="T23:AA23"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="AB28:AP28"/>
+    <mergeCell ref="AB29:AP29"/>
+    <mergeCell ref="AB30:AP30"/>
     <mergeCell ref="AB31:AP31"/>
     <mergeCell ref="AQ15:BU15"/>
     <mergeCell ref="AQ16:BU16"/>
@@ -7555,88 +9737,6 @@
     <mergeCell ref="AQ24:BU24"/>
     <mergeCell ref="AQ25:BU25"/>
     <mergeCell ref="AQ26:BU26"/>
-    <mergeCell ref="T30:AA30"/>
-    <mergeCell ref="T19:AA19"/>
-    <mergeCell ref="T20:AA20"/>
-    <mergeCell ref="T21:AA21"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="T23:AA23"/>
-    <mergeCell ref="T24:AA24"/>
-    <mergeCell ref="AB28:AP28"/>
-    <mergeCell ref="AB29:AP29"/>
-    <mergeCell ref="AB30:AP30"/>
-    <mergeCell ref="I27:S27"/>
-    <mergeCell ref="I28:S28"/>
-    <mergeCell ref="I29:S29"/>
-    <mergeCell ref="I30:S30"/>
-    <mergeCell ref="I31:S31"/>
-    <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="T14:AA14"/>
-    <mergeCell ref="T15:AA15"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="I15:S15"/>
-    <mergeCell ref="I16:S16"/>
-    <mergeCell ref="I17:S17"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="I23:S23"/>
-    <mergeCell ref="I24:S24"/>
-    <mergeCell ref="I25:S25"/>
-    <mergeCell ref="I26:S26"/>
-    <mergeCell ref="T31:AA31"/>
-    <mergeCell ref="T25:AA25"/>
-    <mergeCell ref="T26:AA26"/>
-    <mergeCell ref="T27:AA27"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="T29:AA29"/>
-    <mergeCell ref="A14:G15"/>
-    <mergeCell ref="A16:G17"/>
-    <mergeCell ref="A18:G19"/>
-    <mergeCell ref="A20:G21"/>
-    <mergeCell ref="A22:G23"/>
-    <mergeCell ref="A24:G25"/>
-    <mergeCell ref="AB13:AP13"/>
-    <mergeCell ref="AQ13:BU13"/>
-    <mergeCell ref="T18:AA18"/>
-    <mergeCell ref="I13:S13"/>
-    <mergeCell ref="I14:S14"/>
-    <mergeCell ref="I19:S19"/>
-    <mergeCell ref="I20:S20"/>
-    <mergeCell ref="I21:S21"/>
-    <mergeCell ref="I22:S22"/>
-    <mergeCell ref="AQ14:BU14"/>
-    <mergeCell ref="AB14:AP14"/>
-    <mergeCell ref="AB15:AP15"/>
-    <mergeCell ref="AB16:AP16"/>
-    <mergeCell ref="AB17:AP17"/>
-    <mergeCell ref="AB18:AP18"/>
-    <mergeCell ref="AB19:AP19"/>
-    <mergeCell ref="AB20:AP20"/>
-    <mergeCell ref="AB21:AP21"/>
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:XFD5"/>
-    <mergeCell ref="A6:G7"/>
-    <mergeCell ref="A8:G9"/>
-    <mergeCell ref="A10:G11"/>
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="AQ10:BU12"/>
-    <mergeCell ref="A50:G51"/>
-    <mergeCell ref="I7:BU9"/>
-    <mergeCell ref="I10:S12"/>
-    <mergeCell ref="T10:AA12"/>
-    <mergeCell ref="AB10:AP12"/>
-    <mergeCell ref="A38:G39"/>
-    <mergeCell ref="A40:G41"/>
-    <mergeCell ref="A42:G43"/>
-    <mergeCell ref="A44:G45"/>
-    <mergeCell ref="A46:G47"/>
-    <mergeCell ref="A48:G49"/>
-    <mergeCell ref="A26:G27"/>
-    <mergeCell ref="A28:G29"/>
-    <mergeCell ref="A30:G31"/>
-    <mergeCell ref="A32:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7650,10 +9750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EFD6AD-BC50-4081-B4E6-0E5707F89605}">
-  <dimension ref="A1:CD133"/>
+  <dimension ref="A1:CD134"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU98" sqref="AU98:CD112"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7661,40 +9761,40 @@
     <col min="1" max="16384" width="2.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
+    <row r="1" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:82" s="2" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:82" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+    <row r="2" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:82" s="17" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:82" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="6" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:82" s="21" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="20"/>
     </row>
     <row r="6" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
       <c r="I7" s="49" t="s">
         <v>15</v>
       </c>
@@ -7773,15 +9873,15 @@
       <c r="CD7" s="51"/>
     </row>
     <row r="8" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
       <c r="I8" s="52"/>
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
@@ -7858,13 +9958,13 @@
       <c r="CD8" s="54"/>
     </row>
     <row r="9" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
       <c r="I9" s="55"/>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
@@ -7941,24 +10041,24 @@
       <c r="CD9" s="57"/>
     </row>
     <row r="10" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
       <c r="I11" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -8035,13 +10135,13 @@
       <c r="CD11" s="38"/>
     </row>
     <row r="12" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -8118,13 +10218,13 @@
       <c r="CD12" s="41"/>
     </row>
     <row r="13" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="I13" s="39"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -8201,13 +10301,13 @@
       <c r="CD13" s="41"/>
     </row>
     <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
       <c r="I14" s="42" t="s">
         <v>16</v>
       </c>
@@ -8249,7 +10349,7 @@
       <c r="AS14" s="43"/>
       <c r="AT14" s="43"/>
       <c r="AU14" s="46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV14" s="43"/>
       <c r="AW14" s="43"/>
@@ -8288,13 +10388,13 @@
       <c r="CD14" s="47"/>
     </row>
     <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
       <c r="I15" s="42"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -8371,13 +10471,13 @@
       <c r="CD15" s="47"/>
     </row>
     <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
       <c r="I16" s="42"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -8454,13 +10554,13 @@
       <c r="CD16" s="47"/>
     </row>
     <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
       <c r="I17" s="42"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
@@ -8537,13 +10637,13 @@
       <c r="CD17" s="47"/>
     </row>
     <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
       <c r="I18" s="42"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
@@ -8620,13 +10720,13 @@
       <c r="CD18" s="47"/>
     </row>
     <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
       <c r="I19" s="42"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
@@ -8703,13 +10803,13 @@
       <c r="CD19" s="47"/>
     </row>
     <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
       <c r="I20" s="42"/>
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
@@ -8786,13 +10886,13 @@
       <c r="CD20" s="47"/>
     </row>
     <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
       <c r="I21" s="42"/>
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
@@ -8869,13 +10969,13 @@
       <c r="CD21" s="47"/>
     </row>
     <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
       <c r="I22" s="42"/>
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
@@ -8952,13 +11052,13 @@
       <c r="CD22" s="47"/>
     </row>
     <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
       <c r="I23" s="42"/>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
@@ -9035,13 +11135,13 @@
       <c r="CD23" s="47"/>
     </row>
     <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
       <c r="I24" s="42"/>
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
@@ -9118,13 +11218,13 @@
       <c r="CD24" s="47"/>
     </row>
     <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
       <c r="I25" s="42"/>
       <c r="J25" s="43"/>
       <c r="K25" s="43"/>
@@ -9201,13 +11301,13 @@
       <c r="CD25" s="47"/>
     </row>
     <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
       <c r="I26" s="42"/>
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
@@ -9284,13 +11384,13 @@
       <c r="CD26" s="47"/>
     </row>
     <row r="27" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
       <c r="I27" s="42"/>
       <c r="J27" s="43"/>
       <c r="K27" s="43"/>
@@ -9367,13 +11467,13 @@
       <c r="CD27" s="47"/>
     </row>
     <row r="28" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
       <c r="I28" s="44"/>
       <c r="J28" s="45"/>
       <c r="K28" s="45"/>
@@ -9450,42 +11550,42 @@
       <c r="CD28" s="48"/>
     </row>
     <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
       <c r="I32" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -9562,13 +11662,13 @@
       <c r="CD32" s="38"/>
     </row>
     <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
       <c r="I33" s="39"/>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
@@ -9645,13 +11745,13 @@
       <c r="CD33" s="41"/>
     </row>
     <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
       <c r="I34" s="39"/>
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
@@ -9728,13 +11828,13 @@
       <c r="CD34" s="41"/>
     </row>
     <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
       <c r="I35" s="42" t="s">
         <v>16</v>
       </c>
@@ -9776,7 +11876,7 @@
       <c r="AS35" s="43"/>
       <c r="AT35" s="43"/>
       <c r="AU35" s="46" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AV35" s="43"/>
       <c r="AW35" s="43"/>
@@ -9815,13 +11915,13 @@
       <c r="CD35" s="47"/>
     </row>
     <row r="36" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
       <c r="I36" s="42"/>
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
@@ -9898,13 +11998,13 @@
       <c r="CD36" s="47"/>
     </row>
     <row r="37" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
       <c r="I37" s="42"/>
       <c r="J37" s="43"/>
       <c r="K37" s="43"/>
@@ -9981,13 +12081,13 @@
       <c r="CD37" s="47"/>
     </row>
     <row r="38" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
       <c r="I38" s="42"/>
       <c r="J38" s="43"/>
       <c r="K38" s="43"/>
@@ -10064,13 +12164,13 @@
       <c r="CD38" s="47"/>
     </row>
     <row r="39" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
       <c r="I39" s="42"/>
       <c r="J39" s="43"/>
       <c r="K39" s="43"/>
@@ -10147,13 +12247,13 @@
       <c r="CD39" s="47"/>
     </row>
     <row r="40" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
       <c r="I40" s="42"/>
       <c r="J40" s="43"/>
       <c r="K40" s="43"/>
@@ -10230,13 +12330,13 @@
       <c r="CD40" s="47"/>
     </row>
     <row r="41" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
       <c r="I41" s="42"/>
       <c r="J41" s="43"/>
       <c r="K41" s="43"/>
@@ -10313,13 +12413,13 @@
       <c r="CD41" s="47"/>
     </row>
     <row r="42" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
       <c r="I42" s="42"/>
       <c r="J42" s="43"/>
       <c r="K42" s="43"/>
@@ -10396,13 +12496,13 @@
       <c r="CD42" s="47"/>
     </row>
     <row r="43" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
       <c r="I43" s="42"/>
       <c r="J43" s="43"/>
       <c r="K43" s="43"/>
@@ -10479,13 +12579,13 @@
       <c r="CD43" s="47"/>
     </row>
     <row r="44" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
       <c r="I44" s="42"/>
       <c r="J44" s="43"/>
       <c r="K44" s="43"/>
@@ -10562,13 +12662,13 @@
       <c r="CD44" s="47"/>
     </row>
     <row r="45" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
       <c r="I45" s="42"/>
       <c r="J45" s="43"/>
       <c r="K45" s="43"/>
@@ -10645,13 +12745,13 @@
       <c r="CD45" s="47"/>
     </row>
     <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
       <c r="I46" s="42"/>
       <c r="J46" s="43"/>
       <c r="K46" s="43"/>
@@ -10728,13 +12828,13 @@
       <c r="CD46" s="47"/>
     </row>
     <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
       <c r="I47" s="42"/>
       <c r="J47" s="43"/>
       <c r="K47" s="43"/>
@@ -10811,13 +12911,13 @@
       <c r="CD47" s="47"/>
     </row>
     <row r="48" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
       <c r="I48" s="42"/>
       <c r="J48" s="43"/>
       <c r="K48" s="43"/>
@@ -10894,13 +12994,13 @@
       <c r="CD48" s="47"/>
     </row>
     <row r="49" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
       <c r="I49" s="44"/>
       <c r="J49" s="45"/>
       <c r="K49" s="45"/>
@@ -10977,27 +13077,27 @@
       <c r="CD49" s="48"/>
     </row>
     <row r="50" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="53" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I53" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
@@ -11267,7 +13367,7 @@
       <c r="AS56" s="43"/>
       <c r="AT56" s="43"/>
       <c r="AU56" s="46" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AV56" s="43"/>
       <c r="AW56" s="43"/>
@@ -11381,7 +13481,7 @@
       <c r="CC57" s="43"/>
       <c r="CD57" s="47"/>
     </row>
-    <row r="58" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:82" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I58" s="42"/>
       <c r="J58" s="43"/>
       <c r="K58" s="43"/>
@@ -12372,7 +14472,7 @@
     <row r="73" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="74" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I74" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J74" s="37"/>
       <c r="K74" s="37"/>
@@ -12642,7 +14742,7 @@
       <c r="AS77" s="43"/>
       <c r="AT77" s="43"/>
       <c r="AU77" s="46" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AV77" s="43"/>
       <c r="AW77" s="43"/>
@@ -13746,13 +15846,13 @@
     </row>
     <row r="92" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AU92" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="95" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I95" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J95" s="37"/>
       <c r="K95" s="37"/>
@@ -14022,7 +16122,7 @@
       <c r="AS98" s="43"/>
       <c r="AT98" s="43"/>
       <c r="AU98" s="46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV98" s="43"/>
       <c r="AW98" s="43"/>
@@ -15127,7 +17227,7 @@
     <row r="115" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="116" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I116" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J116" s="37"/>
       <c r="K116" s="37"/>
@@ -15397,7 +17497,7 @@
       <c r="AS119" s="43"/>
       <c r="AT119" s="43"/>
       <c r="AU119" s="46" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AV119" s="43"/>
       <c r="AW119" s="43"/>
@@ -16499,18 +18599,29 @@
       <c r="CC133" s="45"/>
       <c r="CD133" s="48"/>
     </row>
+    <row r="134" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AU134" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="I116:CD118"/>
-    <mergeCell ref="I119:AT133"/>
-    <mergeCell ref="AU119:CD133"/>
-    <mergeCell ref="A50:G51"/>
-    <mergeCell ref="A38:G39"/>
-    <mergeCell ref="A40:G41"/>
-    <mergeCell ref="A42:G43"/>
-    <mergeCell ref="A44:G45"/>
-    <mergeCell ref="A46:G47"/>
-    <mergeCell ref="A48:G49"/>
+    <mergeCell ref="I74:CD76"/>
+    <mergeCell ref="I77:AT91"/>
+    <mergeCell ref="AU77:CD91"/>
+    <mergeCell ref="I14:AT28"/>
+    <mergeCell ref="AU14:CD28"/>
+    <mergeCell ref="I32:CD34"/>
+    <mergeCell ref="I35:AT49"/>
+    <mergeCell ref="AU35:CD49"/>
+    <mergeCell ref="A12:G13"/>
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="A4:XFD5"/>
+    <mergeCell ref="A6:G7"/>
+    <mergeCell ref="A8:G9"/>
+    <mergeCell ref="A10:G11"/>
+    <mergeCell ref="I7:CD9"/>
+    <mergeCell ref="I11:CD13"/>
     <mergeCell ref="A36:G37"/>
     <mergeCell ref="A14:G15"/>
     <mergeCell ref="A16:G17"/>
@@ -16523,28 +18634,22 @@
     <mergeCell ref="A30:G31"/>
     <mergeCell ref="A32:G33"/>
     <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:XFD5"/>
-    <mergeCell ref="A6:G7"/>
-    <mergeCell ref="A8:G9"/>
-    <mergeCell ref="A10:G11"/>
-    <mergeCell ref="I7:CD9"/>
-    <mergeCell ref="I11:CD13"/>
-    <mergeCell ref="I14:AT28"/>
-    <mergeCell ref="AU14:CD28"/>
-    <mergeCell ref="I32:CD34"/>
-    <mergeCell ref="I35:AT49"/>
-    <mergeCell ref="AU35:CD49"/>
+    <mergeCell ref="I116:CD118"/>
+    <mergeCell ref="I119:AT133"/>
+    <mergeCell ref="AU119:CD133"/>
+    <mergeCell ref="A50:G51"/>
+    <mergeCell ref="A38:G39"/>
+    <mergeCell ref="A40:G41"/>
+    <mergeCell ref="A42:G43"/>
+    <mergeCell ref="A44:G45"/>
+    <mergeCell ref="A46:G47"/>
+    <mergeCell ref="A48:G49"/>
     <mergeCell ref="I95:CD97"/>
     <mergeCell ref="I98:AT112"/>
     <mergeCell ref="AU98:CD112"/>
     <mergeCell ref="I53:CD55"/>
     <mergeCell ref="I56:AT70"/>
     <mergeCell ref="AU56:CD70"/>
-    <mergeCell ref="I74:CD76"/>
-    <mergeCell ref="I77:AT91"/>
-    <mergeCell ref="AU77:CD91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
